--- a/src/main/resources/templates/exportAllDistributionDataWithPriceTemplate.xlsx
+++ b/src/main/resources/templates/exportAllDistributionDataWithPriceTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90941\Desktop\wtq\20240405sellStatic\be\seller-admin\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9562E65C-FF29-4AFA-807A-3ABC9A3580E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC98E08-99E7-4C68-9903-DB501F0FEE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2955" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="2895" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>五  方  肉  业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>{.distributionCategoryName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.distributionCategoryPrice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.distributionPrice}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -202,23 +214,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -228,9 +252,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,119 +547,151 @@
     <col min="6" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
+  <mergeCells count="15">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/exportAllDistributionDataWithPriceTemplate.xlsx
+++ b/src/main/resources/templates/exportAllDistributionDataWithPriceTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90941\Desktop\wtq\20240405sellStatic\be\seller-admin\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wtq/Desktop/self/202404-distribution-admin-be/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC98E08-99E7-4C68-9903-DB501F0FEE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0365F327-B11D-D54B-91E3-5ED8ECD1FEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="2895" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9220" yWindow="740" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>五  方  肉  业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,18 +94,6 @@
   </si>
   <si>
     <t>{.distributionCategoryName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.distributionCategoryPrice}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.distributionPrice}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -214,35 +201,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -252,6 +227,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -534,164 +512,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="9">
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
